--- a/medicine/Enfance/Angela_Carter/Angela_Carter.xlsx
+++ b/medicine/Enfance/Angela_Carter/Angela_Carter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angela Carter, née le 7 mai 1940 à Eastbourne et morte le 16 février 1992 à Londres, est une romancière et journaliste anglaise, connue pour ses œuvres de réalisme magique féministe et de science-fiction postmoderne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née Angela Olive Stalker à Eastbourne, en 1940, elle est évacuée pour vivre dans le Yorkshire avec sa grand-mère maternelle. À l'adolescence, elle souffre d'anorexie. Elle commence à travailler comme journaliste au Croydon Advertiser, suivant les traces de son père, journaliste lui aussi. Elle s'inscrit à l'Université de Bristol où elle étudie la littérature anglaise.
 Ses romans et nouvelles révèlent l'influence de sa mère, visible par exemple dans les références shakespeariennes de son roman Bien malin qui connaît son père (Wise Children, 1991). Elle entend aussi se réapproprier les écrits d'auteurs masculins tels que le marquis de Sade avec son pamphlet féministe La Femme sadienne (The Sadeian Woman and the Ideology of Pornography, 1979), Villiers de l'Isle-Adam dans La Passion de l'Ève nouvelle (The Passion of New Eve, 1977) et Charles Baudelaire dans sa nouvelle Vénus noire (Black Venus, 1985), entre autres grands noms de la littérature. Mais la tradition matriarcale du conte oral la fascine également et elle récrit plusieurs contes merveilleux pour son recueil de nouvelles La Compagnie des loups (The Bloody Chamber), y compris Le Petit Chaperon rouge.
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-La Danse des ombres, Christian Bourgois, 1998 ((en) Shadow Dance, 1966)republié sous le titre Honeybuzzard
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Danse des ombres, Christian Bourgois, 1998 ((en) Shadow Dance, 1966)republié sous le titre Honeybuzzard
 Le Magasin de jouets magique, Christian Bourgois, 1999 ((en) The Magic Toyshop, 1967)Prix Somerset-Maugham Réédition : Christian Bourgois, coll. « Titres » no 202, 2018  (ISBN 978-2-267-03074-7)
 Le Théâtre des perceptions, Christian Bourgois ((en) Several Perceptions, 1968)Réédition : 10/18, coll. « Domaine étranger » no 3537, 2003  (ISBN 2-264-03294-4)
 (en) Heroes and Villains, 1969
@@ -559,57 +578,195 @@
 Les Machines infernales du Docteur Hoffman, Les Éditions de l'Ogre, 2016 ((en) The Infernal Desire Machines of Doctor Hoffman, 1972)Réédition anglaise en 1977 sous le titre The War of Dreams
 La Passion de l'Ève nouvelle, Seuil, 1982 ((en) The Passion of New Eve, 1977)
 Des nuits au cirque, Seuil, 1988 ((en) Nights at the Circus, 1984)Prix James Tait Black
-Bien malin qui connaît son père, Christian Bourgois, 1997 ((en) Wise Children, 1991) Réédition : Christian Bourgois, coll. « Titres » no 201, 2018  (ISBN 978-2-267-03077-8)
-Recueils de nouvelles
-Feux d'artifice, Presses de la Renaissance, 1989 ((en) Fireworks: Nine Profane Pieces, 1974)
+Bien malin qui connaît son père, Christian Bourgois, 1997 ((en) Wise Children, 1991) Réédition : Christian Bourgois, coll. « Titres » no 201, 2018  (ISBN 978-2-267-03077-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Angela_Carter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angela_Carter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Feux d'artifice, Presses de la Renaissance, 1989 ((en) Fireworks: Nine Profane Pieces, 1974)
 La Compagnie des loups, Seuil, 1985 ((en) The Bloody Chamber and Other Stories, 1979)Réédition : Seuil, coll. « Points. Nouvelles » no 444, 1997  (ISBN 2-02-033158-6)
 Vénus noire, Christian Bourgois, 2000 ((en) Black Venus, 1985)republié en 1987 sous le titre Saints and Strangers Réédition : Christian Bourgois, coll. « Titres » no 203, 2018  (ISBN 978-2-267-03071-6)
 (en) American Ghosts and Old World Wonders, 1993
-(en) Burning Your Boats: The Collected Short Stories, 1995
-Œuvres dramatiques
-(en) Come Unto These Golden Sands: Four Radio Plays, 1985
-(en) The Curious Room: Plays, Film Scripts and an Opera, 1996Comprend les scénarios de La Compagnie des loups et The Magic Toyshop ; reprend l'intégralité de Come Unto These Golden Sands: Four Radio Plays.
-Ouvrages de littérature d'enfance et de jeunesse
-(en) The Donkey Prince, 1970
+(en) Burning Your Boats: The Collected Short Stories, 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Angela_Carter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angela_Carter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œuvres dramatiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Come Unto These Golden Sands: Four Radio Plays, 1985
+(en) The Curious Room: Plays, Film Scripts and an Opera, 1996Comprend les scénarios de La Compagnie des loups et The Magic Toyshop ; reprend l'intégralité de Come Unto These Golden Sands: Four Radio Plays.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Angela_Carter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angela_Carter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) The Donkey Prince, 1970
 (en) Miss Z, the Dark Young Lady, 1970
 Drôles de chats, Centurion, 1979 ((en) Martin Leman’s Comic and Curious Cats, 1979)
 (en) The Music People, 1980
 (en) Moonshadow, 1982
 (en) Sleeping Beauty and Other Favourite Fairy Tales, 1982
-(en) Sea-Cat and Dragon King, 2000
-Essais
-La Femme sadienne, Veyrier, 1979 ((en) The Sadeian Woman and the Ideology of Pornography, 1979)
+(en) Sea-Cat and Dragon King, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Angela_Carter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angela_Carter</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Femme sadienne, Veyrier, 1979 ((en) The Sadeian Woman and the Ideology of Pornography, 1979)
 (en) Nothing Sacred: Selected Writings, 1982
 (en) Expletives Deleted: Selected Writings, 1992
 (en) Shaking a Leg: Collected Journalism and Writing, 1997</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Angela_Carter</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Angela_Carter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Éditions d'ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Wayward Girls and Wicked Women: An Anthology of Subversive Stories, 1986
 (en) The Virago Book of Fairy Tales, 1990aussi connu sous le nom The Old Wives' Fairy Tale Book
@@ -618,31 +775,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Angela_Carter</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Angela_Carter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1983 : The Bloody Chamber, court métrage britannique réalisé par Nick Lewin, adaptation par Ross Cramer de la nouvelle éponyme, avec Rupert Everett, Suzanna Hamilton, Judy Parfitt et Terence Stamp
 1984 : La Compagnie des loups (The Company of Wolves), film britannique réalisé par Neil Jordan, adaptation par Neil Jordan et Angela Carter de sa nouvelle éponyme, avec Sarah Patterson, Angela Lansbury, David Warner et Stephen Rea
